--- a/NPV_Calculation_Test.xlsx
+++ b/NPV_Calculation_Test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Lab_Meeting\Simulation_2D_15-by-15_DQN\SimulationModelTest\2D_15-by-15_DQN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Lab_Meeting\Simulation_2D_15-by-15_DQN\Basecode_Local\2D_15-by-15_DQN_ModularDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6010C6C8-7036-450B-A531-54A87B209EE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A324DF-38DE-44A6-AA0A-98C0F3B040BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11520" xr2:uid="{6326AD90-3000-457C-9321-B987C392313D}"/>
   </bookViews>
@@ -452,7 +452,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -544,35 +544,35 @@
         <v>90</v>
       </c>
       <c r="E3">
-        <v>77210.37</v>
+        <v>74751.77</v>
       </c>
       <c r="F3">
-        <v>660.78800000000001</v>
+        <v>547.74400000000003</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
         <f>(E3-E2)*$B$2/((1+$B$6)^(90*1/365))</f>
-        <v>4525019.6398863867</v>
+        <v>4380930.0145339295</v>
       </c>
       <c r="I3">
         <f>(F3-F2)*$B$3/((1+$B$6)^(90*1/365))</f>
-        <v>-1936.31935567803</v>
+        <v>-1605.0644218062478</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
         <f>SUM(H3:I3)</f>
-        <v>4523083.3205307089</v>
+        <v>4379324.950112123</v>
       </c>
       <c r="L3">
         <v>981268.31969504105</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M7" si="0">K3-L3</f>
-        <v>3541815.0008356678</v>
+        <f t="shared" ref="M3:M5" si="0">K3-L3</f>
+        <v>3398056.630417082</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -586,35 +586,35 @@
         <v>180</v>
       </c>
       <c r="E4">
-        <v>153008</v>
+        <v>177350.1</v>
       </c>
       <c r="F4">
-        <v>1350.83</v>
+        <v>1506.143</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
         <f>(E4-E3)*$B$2/((1+$B$6)^(90*2/365))</f>
-        <v>4339043.918022804</v>
+        <v>5873253.0263254466</v>
       </c>
       <c r="I4">
         <f>(F4-F3)*$B$3/((1+$B$6)^(90*2/365))</f>
-        <v>-1975.076623952682</v>
+        <v>-2743.1829675869394</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K7" si="1">SUM(H4:I4)</f>
-        <v>4337068.841398851</v>
+        <f t="shared" ref="K4:K5" si="1">SUM(H4:I4)</f>
+        <v>5870509.8433578592</v>
       </c>
       <c r="L4">
         <v>2912645.6381834201</v>
       </c>
       <c r="M4">
         <f t="shared" si="0"/>
-        <v>1424423.203215431</v>
+        <v>2957864.2051744391</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -622,35 +622,35 @@
         <v>270</v>
       </c>
       <c r="E5">
-        <v>255786.8</v>
+        <v>304295.7</v>
       </c>
       <c r="F5">
-        <v>2167.8429999999998</v>
+        <v>2700.0259999999998</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
         <f>(E5-E4)*$B$2/((1+$B$6)^(90*3/365))</f>
-        <v>5746925.2269009035</v>
+        <v>7098223.2822729154</v>
       </c>
       <c r="I5">
         <f>(F5-F4)*$B$3/((1+$B$6)^(90*3/365))</f>
-        <v>-2284.1834212921285</v>
+        <v>-3337.8266386979276</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
         <f t="shared" si="1"/>
-        <v>5744641.0434796112</v>
+        <v>7094885.4556342177</v>
       </c>
       <c r="L5">
         <v>5878628.8155099601</v>
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
-        <v>-133987.77203034889</v>
+        <v>1216256.6401242577</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -664,7 +664,7 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K9">
         <f>SUM(K3:K7)</f>
-        <v>14604793.205409169</v>
+        <v>17344720.249104202</v>
       </c>
     </row>
   </sheetData>

--- a/NPV_Calculation_Test.xlsx
+++ b/NPV_Calculation_Test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Lab_Meeting\Simulation_2D_15-by-15_DQN\Basecode_Local\2D_15-by-15_DQN_ModularDesign\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Lab_Meeting\Simulation_2D_15-by-15_DQN\SimulationModelTest\Seed_123456789\2D_15-by-15_DQN_ModularDesign_PER_On_Seed_123456789\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A324DF-38DE-44A6-AA0A-98C0F3B040BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F18228-5D0B-4EC9-8078-737598FBE607}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11520" xr2:uid="{6326AD90-3000-457C-9321-B987C392313D}"/>
   </bookViews>
@@ -452,7 +452,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -544,35 +544,35 @@
         <v>90</v>
       </c>
       <c r="E3">
-        <v>74751.77</v>
+        <v>77210.37</v>
       </c>
       <c r="F3">
-        <v>547.74400000000003</v>
+        <v>660.78800000000001</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
         <f>(E3-E2)*$B$2/((1+$B$6)^(90*1/365))</f>
-        <v>4380930.0145339295</v>
+        <v>4525019.6398863867</v>
       </c>
       <c r="I3">
         <f>(F3-F2)*$B$3/((1+$B$6)^(90*1/365))</f>
-        <v>-1605.0644218062478</v>
+        <v>-1936.31935567803</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
         <f>SUM(H3:I3)</f>
-        <v>4379324.950112123</v>
+        <v>4523083.3205307089</v>
       </c>
       <c r="L3">
         <v>981268.31969504105</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M5" si="0">K3-L3</f>
-        <v>3398056.630417082</v>
+        <v>3541815.0008356678</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -586,35 +586,35 @@
         <v>180</v>
       </c>
       <c r="E4">
-        <v>177350.1</v>
+        <v>175782.39999999999</v>
       </c>
       <c r="F4">
-        <v>1506.143</v>
+        <v>1517.5229999999999</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
         <f>(E4-E3)*$B$2/((1+$B$6)^(90*2/365))</f>
-        <v>5873253.0263254466</v>
+        <v>5642767.0266030915</v>
       </c>
       <c r="I4">
         <f>(F4-F3)*$B$3/((1+$B$6)^(90*2/365))</f>
-        <v>-2743.1829675869394</v>
+        <v>-2452.1946076066401</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
         <f t="shared" ref="K4:K5" si="1">SUM(H4:I4)</f>
-        <v>5870509.8433578592</v>
+        <v>5640314.8319954844</v>
       </c>
       <c r="L4">
         <v>2912645.6381834201</v>
       </c>
       <c r="M4">
         <f t="shared" si="0"/>
-        <v>2957864.2051744391</v>
+        <v>2727669.1938120644</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -622,35 +622,35 @@
         <v>270</v>
       </c>
       <c r="E5">
-        <v>304295.7</v>
+        <v>302766.5</v>
       </c>
       <c r="F5">
-        <v>2700.0259999999998</v>
+        <v>2689.3649999999998</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
         <f>(E5-E4)*$B$2/((1+$B$6)^(90*3/365))</f>
-        <v>7098223.2822729154</v>
+        <v>7100376.0279873591</v>
       </c>
       <c r="I5">
         <f>(F5-F4)*$B$3/((1+$B$6)^(90*3/365))</f>
-        <v>-3337.8266386979276</v>
+        <v>-3276.2049915653856</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
         <f t="shared" si="1"/>
-        <v>7094885.4556342177</v>
+        <v>7097099.822995794</v>
       </c>
       <c r="L5">
         <v>5878628.8155099601</v>
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
-        <v>1216256.6401242577</v>
+        <v>1218471.007485834</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -664,7 +664,7 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K9">
         <f>SUM(K3:K7)</f>
-        <v>17344720.249104202</v>
+        <v>17260497.975521985</v>
       </c>
     </row>
   </sheetData>
